--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H2">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I2">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J2">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q2">
-        <v>101.6897724054723</v>
+        <v>118.6447515426751</v>
       </c>
       <c r="R2">
-        <v>915.2079516492508</v>
+        <v>1067.802763884076</v>
       </c>
       <c r="S2">
-        <v>0.007434941729812974</v>
+        <v>0.008749497499637545</v>
       </c>
       <c r="T2">
-        <v>0.007434941729812974</v>
+        <v>0.008749497499637545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H3">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I3">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J3">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N3">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O3">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P3">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q3">
-        <v>122.0888097907683</v>
+        <v>140.7560088858428</v>
       </c>
       <c r="R3">
-        <v>1098.799288116915</v>
+        <v>1266.804079972585</v>
       </c>
       <c r="S3">
-        <v>0.008926396088656545</v>
+        <v>0.01038009968239235</v>
       </c>
       <c r="T3">
-        <v>0.008926396088656545</v>
+        <v>0.01038009968239235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H4">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I4">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J4">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N4">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O4">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P4">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q4">
-        <v>165.494017757273</v>
+        <v>65.39127815052434</v>
       </c>
       <c r="R4">
-        <v>1489.446159815457</v>
+        <v>588.521503354719</v>
       </c>
       <c r="S4">
-        <v>0.01209992263284625</v>
+        <v>0.004822302017045597</v>
       </c>
       <c r="T4">
-        <v>0.01209992263284625</v>
+        <v>0.004822302017045597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H5">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I5">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J5">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N5">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O5">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P5">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q5">
-        <v>12.47674367196067</v>
+        <v>19.122281829904</v>
       </c>
       <c r="R5">
-        <v>112.290693047646</v>
+        <v>172.100536469136</v>
       </c>
       <c r="S5">
-        <v>0.0009122241104932235</v>
+        <v>0.001410179168337926</v>
       </c>
       <c r="T5">
-        <v>0.0009122241104932234</v>
+        <v>0.001410179168337927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H6">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I6">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J6">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N6">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O6">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P6">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q6">
-        <v>113.5807572826043</v>
+        <v>77.47700405014288</v>
       </c>
       <c r="R6">
-        <v>1022.226815543439</v>
+        <v>697.293036451286</v>
       </c>
       <c r="S6">
-        <v>0.008304338696491663</v>
+        <v>0.005713567978372022</v>
       </c>
       <c r="T6">
-        <v>0.008304338696491663</v>
+        <v>0.005713567978372022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>11.027086</v>
       </c>
       <c r="H7">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I7">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J7">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N7">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O7">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P7">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q7">
-        <v>1399.688025438308</v>
+        <v>1416.483170610275</v>
       </c>
       <c r="R7">
-        <v>12597.19222894478</v>
+        <v>12748.34853549247</v>
       </c>
       <c r="S7">
-        <v>0.1023367312452632</v>
+        <v>0.1044590325183956</v>
       </c>
       <c r="T7">
-        <v>0.1023367312452632</v>
+        <v>0.1044590325183956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>11.027086</v>
       </c>
       <c r="H8">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I8">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J8">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q8">
         <v>1680.466393638597</v>
@@ -948,10 +948,10 @@
         <v>15124.19754274737</v>
       </c>
       <c r="S8">
-        <v>0.1228655490130644</v>
+        <v>0.1239265649612596</v>
       </c>
       <c r="T8">
-        <v>0.1228655490130644</v>
+        <v>0.1239265649612595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>11.027086</v>
       </c>
       <c r="H9">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I9">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J9">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N9">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O9">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P9">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q9">
-        <v>2277.908480440894</v>
+        <v>780.6973658805022</v>
       </c>
       <c r="R9">
-        <v>20501.17632396805</v>
+        <v>7026.276292924519</v>
       </c>
       <c r="S9">
-        <v>0.1665469045440943</v>
+        <v>0.05757279240698773</v>
       </c>
       <c r="T9">
-        <v>0.1665469045440942</v>
+        <v>0.05757279240698773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>11.027086</v>
       </c>
       <c r="H10">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I10">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J10">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N10">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O10">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P10">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q10">
-        <v>171.7335804870653</v>
+        <v>228.298260509088</v>
       </c>
       <c r="R10">
-        <v>1545.602224383588</v>
+        <v>2054.684344581793</v>
       </c>
       <c r="S10">
-        <v>0.0125561217590528</v>
+        <v>0.01683593276165606</v>
       </c>
       <c r="T10">
-        <v>0.01255612175905279</v>
+        <v>0.01683593276165606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>11.027086</v>
       </c>
       <c r="H11">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I11">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J11">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N11">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O11">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P11">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q11">
-        <v>1563.359049077005</v>
+        <v>924.9871647871215</v>
       </c>
       <c r="R11">
-        <v>14070.23144169304</v>
+        <v>8324.884483084094</v>
       </c>
       <c r="S11">
-        <v>0.1143033675630279</v>
+        <v>0.06821349263469714</v>
       </c>
       <c r="T11">
-        <v>0.1143033675630279</v>
+        <v>0.06821349263469713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H12">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I12">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J12">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N12">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O12">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P12">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q12">
-        <v>359.2676784703196</v>
+        <v>1827.868534439919</v>
       </c>
       <c r="R12">
-        <v>3233.409106232877</v>
+        <v>16450.81680995927</v>
       </c>
       <c r="S12">
-        <v>0.02626748188776815</v>
+        <v>0.1347967858990859</v>
       </c>
       <c r="T12">
-        <v>0.02626748188776815</v>
+        <v>0.1347967858990859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H13">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I13">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J13">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N13">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O13">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P13">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q13">
-        <v>431.3370186909117</v>
+        <v>2168.519688654208</v>
       </c>
       <c r="R13">
-        <v>3882.033168218205</v>
+        <v>19516.67719788787</v>
       </c>
       <c r="S13">
-        <v>0.03153675658837053</v>
+        <v>0.1599182209671555</v>
       </c>
       <c r="T13">
-        <v>0.03153675658837053</v>
+        <v>0.1599182209671555</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H14">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I14">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J14">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q14">
-        <v>584.6866420676711</v>
+        <v>1007.433183550135</v>
       </c>
       <c r="R14">
-        <v>5262.179778609039</v>
+        <v>9066.898651951218</v>
       </c>
       <c r="S14">
-        <v>0.04274875448279807</v>
+        <v>0.07429350229077195</v>
       </c>
       <c r="T14">
-        <v>0.04274875448279807</v>
+        <v>0.07429350229077195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H15">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I15">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J15">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N15">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O15">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P15">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q15">
-        <v>44.08005473767133</v>
+        <v>294.602304856288</v>
       </c>
       <c r="R15">
-        <v>396.720492639042</v>
+        <v>2651.420743706592</v>
       </c>
       <c r="S15">
-        <v>0.003222867262547991</v>
+        <v>0.02172554703189217</v>
       </c>
       <c r="T15">
-        <v>0.00322286726254799</v>
+        <v>0.02172554703189217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H16">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I16">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J16">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N16">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O16">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P16">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q16">
-        <v>401.2782605620836</v>
+        <v>1193.628677244877</v>
       </c>
       <c r="R16">
-        <v>3611.504345058753</v>
+        <v>10742.65809520389</v>
       </c>
       <c r="S16">
-        <v>0.02933904181458516</v>
+        <v>0.08802455221370042</v>
       </c>
       <c r="T16">
-        <v>0.02933904181458516</v>
+        <v>0.08802455221370042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H17">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I17">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J17">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N17">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O17">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P17">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q17">
-        <v>184.6827848320765</v>
+        <v>119.594461397244</v>
       </c>
       <c r="R17">
-        <v>1662.145063488689</v>
+        <v>1076.350152575196</v>
       </c>
       <c r="S17">
-        <v>0.01350288933926442</v>
+        <v>0.008819534175427144</v>
       </c>
       <c r="T17">
-        <v>0.01350288933926441</v>
+        <v>0.008819534175427142</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H18">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I18">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J18">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N18">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O18">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P18">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q18">
-        <v>221.7302768570206</v>
+        <v>141.882711643365</v>
       </c>
       <c r="R18">
-        <v>1995.572491713185</v>
+        <v>1276.944404790285</v>
       </c>
       <c r="S18">
-        <v>0.01621157810830671</v>
+        <v>0.01046318875992504</v>
       </c>
       <c r="T18">
-        <v>0.01621157810830671</v>
+        <v>0.01046318875992504</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H19">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I19">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J19">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N19">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O19">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P19">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q19">
-        <v>300.5601777786804</v>
+        <v>65.91471252461101</v>
       </c>
       <c r="R19">
-        <v>2705.041600008123</v>
+        <v>593.232412721499</v>
       </c>
       <c r="S19">
-        <v>0.02197514415880886</v>
+        <v>0.004860902862744603</v>
       </c>
       <c r="T19">
-        <v>0.02197514415880886</v>
+        <v>0.004860902862744603</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H20">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I20">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J20">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q20">
-        <v>22.65950363017711</v>
+        <v>19.275349026384</v>
       </c>
       <c r="R20">
-        <v>203.935532671594</v>
+        <v>173.478141237456</v>
       </c>
       <c r="S20">
-        <v>0.001656725992512757</v>
+        <v>0.001421467160730886</v>
       </c>
       <c r="T20">
-        <v>0.001656725992512756</v>
+        <v>0.001421467160730886</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H21">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I21">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J21">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N21">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O21">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P21">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q21">
-        <v>206.2784689363579</v>
+        <v>78.09718044473399</v>
       </c>
       <c r="R21">
-        <v>1856.506220427221</v>
+        <v>702.874624002606</v>
       </c>
       <c r="S21">
-        <v>0.01508183527583866</v>
+        <v>0.005759303097231093</v>
       </c>
       <c r="T21">
-        <v>0.01508183527583866</v>
+        <v>0.005759303097231092</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H22">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I22">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J22">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="N22">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="O22">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="P22">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="Q22">
-        <v>653.600806712578</v>
+        <v>335.3425924665729</v>
       </c>
       <c r="R22">
-        <v>5882.407260413202</v>
+        <v>3018.083332199156</v>
       </c>
       <c r="S22">
-        <v>0.04778734180946267</v>
+        <v>0.02472995337895666</v>
       </c>
       <c r="T22">
-        <v>0.04778734180946267</v>
+        <v>0.02472995337895666</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H23">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I23">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J23">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>152.3944216666667</v>
       </c>
       <c r="N23">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="O23">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="P23">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="Q23">
-        <v>784.7135722916662</v>
+        <v>397.8387944792372</v>
       </c>
       <c r="R23">
-        <v>7062.422150624996</v>
+        <v>3580.549150313135</v>
       </c>
       <c r="S23">
-        <v>0.05737351502094575</v>
+        <v>0.029338757022917</v>
       </c>
       <c r="T23">
-        <v>0.05737351502094575</v>
+        <v>0.02933875702291699</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H24">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I24">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J24">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="N24">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="O24">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="P24">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="Q24">
-        <v>1063.696190418836</v>
+        <v>184.8247010893877</v>
       </c>
       <c r="R24">
-        <v>9573.265713769522</v>
+        <v>1663.422309804489</v>
       </c>
       <c r="S24">
-        <v>0.07777103839365562</v>
+        <v>0.01362996035666352</v>
       </c>
       <c r="T24">
-        <v>0.07777103839365562</v>
+        <v>0.01362996035666351</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H25">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I25">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J25">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="N25">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="O25">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="P25">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="Q25">
-        <v>80.19301780540422</v>
+        <v>54.048033978224</v>
       </c>
       <c r="R25">
-        <v>721.737160248638</v>
+        <v>486.432305804016</v>
       </c>
       <c r="S25">
-        <v>0.005863228920836383</v>
+        <v>0.003985790622880624</v>
       </c>
       <c r="T25">
-        <v>0.005863228920836382</v>
+        <v>0.003985790622880624</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H26">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I26">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J26">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="N26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="O26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="P26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="Q26">
-        <v>730.0289186500407</v>
+        <v>218.9843128911851</v>
       </c>
       <c r="R26">
-        <v>6570.260267850367</v>
+        <v>1970.858816020666</v>
       </c>
       <c r="S26">
-        <v>0.05337530356149508</v>
+        <v>0.016149072531136</v>
       </c>
       <c r="T26">
-        <v>0.05337530356149507</v>
+        <v>0.016149072531136</v>
       </c>
     </row>
   </sheetData>
